--- a/Technology/ZScaler.xlsx
+++ b/Technology/ZScaler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Growth Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3609DE8E-D790-1E49-A9A8-C5A2A21569B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95867C2C-09E4-8748-842A-39EFFF1E99D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -404,9 +404,6 @@
     <t>Debt to Equity</t>
   </si>
   <si>
-    <t>Share Dilution (5yr)</t>
-  </si>
-  <si>
     <t>Weighted Average Cost of Capital</t>
   </si>
   <si>
@@ -513,6 +510,18 @@
   </si>
   <si>
     <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Share Dilution (3yr)</t>
+  </si>
+  <si>
+    <t>(3yr diluted)</t>
+  </si>
+  <si>
+    <t>(3 yr diluted)</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -942,7 +951,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -972,6 +980,12 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2394,10 +2408,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2539,16 +2553,16 @@
       <c r="N3" s="27">
         <v>3976000000</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" s="55" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2605,19 +2619,19 @@
         <f t="shared" si="0"/>
         <v>0.24952859836580776</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="56">
         <f>(I4+H4+G4)/3</f>
         <v>0.53520738402986978</v>
       </c>
-      <c r="P4" s="57">
+      <c r="P4" s="56">
         <f>(I20+H20+G20)/3</f>
         <v>1.9422162936945606</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="Q4" s="56">
         <f>(I29+H29+G29)/3</f>
         <v>1.5943240760148953</v>
       </c>
-      <c r="R4" s="57">
+      <c r="R4" s="56">
         <f>(I105+H105+G105)/3</f>
         <v>1.6073435736433679</v>
       </c>
@@ -2697,16 +2711,16 @@
       <c r="I6" s="10">
         <v>848664000</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="O6" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="56" t="s">
+      <c r="P6" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="Q6" s="56" t="s">
+      <c r="Q6" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="55" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2738,19 +2752,19 @@
       <c r="I7" s="2">
         <v>0.77790000000000004</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="56">
         <f>I7</f>
         <v>0.77790000000000004</v>
       </c>
-      <c r="P7" s="58">
+      <c r="P7" s="57">
         <f>I21</f>
         <v>-0.25700000000000001</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="57">
         <f>I30</f>
         <v>-0.35770000000000002</v>
       </c>
-      <c r="R7" s="58">
+      <c r="R7" s="57">
         <f>I106/I3</f>
         <v>0.2120471590711181</v>
       </c>
@@ -2822,16 +2836,16 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="56" t="s">
+      <c r="P9" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="56" t="s">
+      <c r="Q9" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="56" t="s">
+      <c r="R9" s="55" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2863,19 +2877,19 @@
       <c r="I10" s="1">
         <v>151735000</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="56">
         <f>I9</f>
         <v>0.26503511631189813</v>
       </c>
-      <c r="P10" s="58">
+      <c r="P10" s="57">
         <f>I13</f>
         <v>0.81301365970451334</v>
       </c>
-      <c r="Q10" s="58">
+      <c r="Q10" s="57">
         <f>I80</f>
         <v>0.3754191316527124</v>
       </c>
-      <c r="R10" s="58">
+      <c r="R10" s="57">
         <f>I89</f>
         <v>6.3519184267598949E-2</v>
       </c>
@@ -2937,16 +2951,16 @@
       <c r="I12" s="1">
         <v>886954000</v>
       </c>
-      <c r="O12" s="55" t="s">
+      <c r="O12" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="56" t="s">
+      <c r="P12" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="Q12" s="56" t="s">
+      <c r="Q12" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" s="55" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2988,15 +3002,15 @@
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="O13" s="57">
+      <c r="O13" s="56">
         <f>I28/I72</f>
         <v>-0.68075702075702071</v>
       </c>
-      <c r="P13" s="58">
+      <c r="P13" s="57">
         <f>I28/I54</f>
         <v>-0.13777767579293704</v>
       </c>
-      <c r="Q13" s="58">
+      <c r="Q13" s="57">
         <f>I22/(I72+I56+I61)</f>
         <v>-0.20223875895447993</v>
       </c>
@@ -3062,17 +3076,20 @@
       <c r="I15" s="1">
         <v>1176093000</v>
       </c>
-      <c r="O15" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="P15" s="56" t="s">
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="P15" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q15" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="Q15" s="56" t="s">
+      <c r="R15" s="55" t="s">
         <v>158</v>
-      </c>
-      <c r="R15" s="56" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3104,18 +3121,18 @@
         <v>1418375000</v>
       </c>
       <c r="O16" s="18">
-        <f>(I35+H35+G35+F35+E35)/5</f>
-        <v>0.13929835264546955</v>
-      </c>
-      <c r="P16" s="59">
+        <f>(I35+H35+G35)/3</f>
+        <v>4.4726828389374695E-2</v>
+      </c>
+      <c r="P16" s="58">
         <f>Q101/I3</f>
         <v>15.582806115059773</v>
       </c>
-      <c r="Q16" s="59">
+      <c r="Q16" s="58">
         <f>Q101/I28</f>
         <v>-43.558694059106585</v>
       </c>
-      <c r="R16" s="60">
+      <c r="R16" s="59">
         <f>Q101/I106</f>
         <v>73.487455259108117</v>
       </c>
@@ -3149,7 +3166,7 @@
         <v>53796000</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3176,6 +3193,9 @@
       </c>
       <c r="I18" s="1">
         <v>49466000</v>
+      </c>
+      <c r="O18" s="54" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3205,6 +3225,10 @@
       </c>
       <c r="I19" s="10">
         <v>-280368000</v>
+      </c>
+      <c r="O19" s="60">
+        <f>I40-I56-I61</f>
+        <v>685617000</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5100,10 +5124,10 @@
       <c r="I83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P83" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q83" s="64"/>
+      <c r="P83" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q83" s="65"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5133,10 +5157,10 @@
       <c r="I84" s="1">
         <v>14358000</v>
       </c>
-      <c r="P84" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q84" s="66"/>
+      <c r="P84" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q84" s="67"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5203,7 +5227,7 @@
         <v>156273000</v>
       </c>
       <c r="P86" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q86" s="21">
         <f>I56</f>
@@ -5239,7 +5263,7 @@
         <v>321912000</v>
       </c>
       <c r="P87" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q87" s="21">
         <f>I61</f>
@@ -5275,7 +5299,7 @@
         <v>-69296000</v>
       </c>
       <c r="P88" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q88" s="25">
         <f>Q85/(Q86+Q87)</f>
@@ -5325,7 +5349,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
       <c r="P89" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q89" s="21">
         <f>I27</f>
@@ -5397,7 +5421,7 @@
         <v>-844944000</v>
       </c>
       <c r="P91" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q91" s="25">
         <f>Q89/Q90</f>
@@ -5433,7 +5457,7 @@
         <v>1334874000</v>
       </c>
       <c r="P92" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q92" s="29">
         <f>Q88*(1-Q91)</f>
@@ -5468,10 +5492,10 @@
       <c r="I93" s="1">
         <v>-21284000</v>
       </c>
-      <c r="P93" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q93" s="66"/>
+      <c r="P93" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q93" s="67"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5537,7 +5561,7 @@
         <v>92</v>
       </c>
       <c r="P95" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q95" s="30">
         <v>0.89</v>
@@ -5572,7 +5596,7 @@
         <v>92</v>
       </c>
       <c r="P96" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q96" s="22">
         <v>8.4000000000000005E-2</v>
@@ -5607,7 +5631,7 @@
         <v>92</v>
       </c>
       <c r="P97" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q97" s="29">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
@@ -5642,10 +5666,10 @@
       <c r="I98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P98" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q98" s="66"/>
+      <c r="P98" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q98" s="67"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5676,7 +5700,7 @@
         <v>41337000</v>
       </c>
       <c r="P99" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q99" s="21">
         <f>Q86+Q87</f>
@@ -5748,7 +5772,7 @@
         <v>92</v>
       </c>
       <c r="P101" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q101" s="31">
         <v>17000000000</v>
@@ -5783,7 +5807,7 @@
         <v>737312000</v>
       </c>
       <c r="P102" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q102" s="25">
         <f>Q101/Q103</f>
@@ -5819,7 +5843,7 @@
         <v>275898000</v>
       </c>
       <c r="P103" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q103" s="32">
         <f>Q99+Q101</f>
@@ -5854,10 +5878,10 @@
       <c r="I104" s="11">
         <v>1013210000</v>
       </c>
-      <c r="P104" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q104" s="66"/>
+      <c r="P104" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q104" s="67"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5899,7 +5923,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
       <c r="P105" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q105" s="34">
         <f>(Q100*Q92)+(Q102*Q97)</f>
@@ -5955,10 +5979,10 @@
         <v>848683258.11013532</v>
       </c>
       <c r="O106" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="P106" s="37" t="s">
         <v>143</v>
-      </c>
-      <c r="P106" s="37" t="s">
-        <v>144</v>
       </c>
       <c r="Q106" s="38">
         <f>(SUM(J4:N4)/5)</f>
@@ -5984,10 +6008,10 @@
         <v>16505395735.923687</v>
       </c>
       <c r="O107" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="P107" s="41" t="s">
         <v>145</v>
-      </c>
-      <c r="P107" s="41" t="s">
-        <v>146</v>
       </c>
       <c r="Q107" s="42">
         <v>2.5000000000000001E-2</v>
@@ -6015,10 +6039,10 @@
         <v>17354078994.033821</v>
       </c>
       <c r="O108" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P108" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q108" s="44">
         <f>Q105</f>
@@ -6026,14 +6050,14 @@
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="K109" s="62"/>
+      <c r="J109" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="K109" s="63"/>
     </row>
     <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="J110" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K110" s="46">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
@@ -6042,7 +6066,7 @@
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="J111" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K111" s="46">
         <f>I40</f>
@@ -6051,61 +6075,65 @@
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="J112" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K112" s="46">
         <f>Q99</f>
         <v>1045722000</v>
       </c>
     </row>
-    <row r="113" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:11" ht="20" x14ac:dyDescent="0.25">
       <c r="J113" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K113" s="46">
         <f>K110+K111-K112</f>
         <v>14124483040.819927</v>
       </c>
     </row>
-    <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J114" s="47" t="s">
+    <row r="114" spans="9:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>161</v>
+      </c>
+      <c r="J114" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="K114" s="61">
+        <f>I34*(1+(5*O16))</f>
+        <v>172403932.42960474</v>
+      </c>
+    </row>
+    <row r="115" spans="9:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J115" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="K114" s="48">
-        <v>144210000</v>
-      </c>
-    </row>
-    <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J115" s="49" t="s">
+      <c r="K115" s="49">
+        <f>K113/K114</f>
+        <v>81.926687180335506</v>
+      </c>
+    </row>
+    <row r="116" spans="9:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J116" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="K115" s="50">
-        <f>K113/K114</f>
-        <v>97.943852997849859</v>
-      </c>
-    </row>
-    <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J116" s="47" t="s">
+      <c r="K116" s="50">
+        <v>117.88</v>
+      </c>
+    </row>
+    <row r="117" spans="9:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J117" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="K116" s="51">
-        <v>117.88</v>
-      </c>
-    </row>
-    <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J117" s="52" t="s">
+      <c r="K117" s="52">
+        <f>K115/K116-1</f>
+        <v>-0.30499926043149383</v>
+      </c>
+    </row>
+    <row r="118" spans="9:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J118" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="K117" s="53">
-        <f>K115/K116-1</f>
-        <v>-0.16912238719163675</v>
-      </c>
-    </row>
-    <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J118" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="K118" s="54" t="str">
+      <c r="K118" s="53" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
